--- a/Src/Results/Request_distribution_instance_1_demand_low.xlsx
+++ b/Src/Results/Request_distribution_instance_1_demand_low.xlsx
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1458,13 +1458,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1591,13 +1591,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1724,13 +1724,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1781,13 +1781,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1800,13 +1800,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1876,13 +1876,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1895,10 +1895,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2180,13 +2180,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2199,13 +2199,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2237,13 +2237,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -2294,13 +2294,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2465,13 +2465,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2484,13 +2484,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2503,13 +2503,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2769,13 +2769,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2864,13 +2864,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2902,13 +2902,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -2940,13 +2940,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2978,13 +2978,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -3225,13 +3225,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3282,13 +3282,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -3437,10 +3437,10 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3510,13 +3510,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3852,13 +3852,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -3890,10 +3890,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -4080,13 +4080,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -4118,13 +4118,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4137,13 +4137,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -4460,13 +4460,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4479,13 +4479,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -4555,13 +4555,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -4688,13 +4688,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -4726,13 +4726,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -4802,13 +4802,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -4897,13 +4897,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -4954,13 +4954,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5144,13 +5144,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -5239,13 +5239,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
@@ -5391,13 +5391,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -5486,10 +5486,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
         <v>0</v>
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -5619,13 +5619,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
       </c>
       <c r="E273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -5657,13 +5657,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -5676,13 +5676,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -5695,13 +5695,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -5733,13 +5733,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -5828,13 +5828,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284" t="n">
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D287" t="n">
         <v>0</v>
       </c>
       <c r="E287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D288" t="n">
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -5942,13 +5942,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290" t="n">
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -5980,13 +5980,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -5999,13 +5999,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293" t="n">
         <v>0</v>
       </c>
       <c r="E293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D295" t="n">
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -6094,13 +6094,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -6113,13 +6113,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D299" t="n">
         <v>0</v>
       </c>
       <c r="E299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -6284,13 +6284,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D309" t="n">
         <v>0</v>
       </c>
       <c r="E309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312" t="n">
         <v>1</v>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D318" t="n">
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D330" t="n">
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -6873,13 +6873,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
       </c>
       <c r="E339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -6930,13 +6930,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -6987,10 +6987,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E345" t="n">
         <v>0</v>
@@ -7006,13 +7006,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -7044,13 +7044,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D348" t="n">
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D351" t="n">
         <v>0</v>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E355" t="n">
         <v>0</v>
@@ -7196,13 +7196,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D356" t="n">
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -7291,13 +7291,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -7310,13 +7310,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -7405,13 +7405,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -7443,13 +7443,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
       </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -7462,13 +7462,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D374" t="n">
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -7595,13 +7595,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D377" t="n">
         <v>0</v>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -7652,13 +7652,13 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D380" t="n">
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -7690,13 +7690,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D382" t="n">
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -7747,13 +7747,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D385" t="n">
         <v>0</v>
       </c>
       <c r="E385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -7804,13 +7804,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D388" t="n">
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D390" t="n">
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -7880,13 +7880,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D392" t="n">
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D393" t="n">
         <v>0</v>
       </c>
       <c r="E393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -7918,13 +7918,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D394" t="n">
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -7994,13 +7994,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D398" t="n">
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -8184,13 +8184,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D408" t="n">
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -8203,13 +8203,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409" t="n">
         <v>0</v>
       </c>
       <c r="E409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -8241,13 +8241,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D411" t="n">
         <v>0</v>
       </c>
       <c r="E411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -8298,13 +8298,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D414" t="n">
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -8355,13 +8355,13 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -8469,13 +8469,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D423" t="n">
         <v>0</v>
       </c>
       <c r="E423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -8488,13 +8488,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -8507,13 +8507,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425" t="n">
         <v>0</v>
       </c>
       <c r="E425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E429" t="n">
         <v>0</v>
@@ -8602,13 +8602,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D430" t="n">
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -8640,10 +8640,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E432" t="n">
         <v>0</v>
@@ -8716,13 +8716,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D436" t="n">
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -8735,13 +8735,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D437" t="n">
         <v>0</v>
       </c>
       <c r="E437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -8754,13 +8754,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D438" t="n">
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -8849,13 +8849,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D443" t="n">
         <v>0</v>
       </c>
       <c r="E443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -9001,13 +9001,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D451" t="n">
         <v>0</v>
       </c>
       <c r="E451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -9058,13 +9058,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D454" t="n">
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -9096,13 +9096,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D456" t="n">
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
@@ -9134,13 +9134,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D458" t="n">
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D460" t="n">
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -9229,13 +9229,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D463" t="n">
         <v>0</v>
       </c>
       <c r="E463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -9248,13 +9248,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D464" t="n">
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -9419,13 +9419,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D473" t="n">
         <v>0</v>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -9438,10 +9438,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E474" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E476" t="n">
         <v>0</v>
@@ -9533,13 +9533,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D479" t="n">
         <v>0</v>
       </c>
       <c r="E479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -9590,13 +9590,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D482" t="n">
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -9609,13 +9609,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D483" t="n">
         <v>0</v>
       </c>
       <c r="E483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -9647,13 +9647,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D485" t="n">
         <v>0</v>
       </c>
       <c r="E485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E490" t="n">
         <v>0</v>
@@ -9761,13 +9761,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D491" t="n">
         <v>0</v>
       </c>
       <c r="E491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -10046,13 +10046,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D506" t="n">
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -10065,10 +10065,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E507" t="n">
         <v>0</v>
@@ -10084,10 +10084,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E508" t="n">
         <v>1</v>
@@ -10141,10 +10141,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E511" t="n">
         <v>0</v>
@@ -10179,13 +10179,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D513" t="n">
         <v>0</v>
       </c>
       <c r="E513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -10236,13 +10236,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D516" t="n">
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -10312,13 +10312,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D520" t="n">
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -10350,13 +10350,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D522" t="n">
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -10426,13 +10426,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D526" t="n">
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -10445,13 +10445,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D527" t="n">
         <v>0</v>
       </c>
       <c r="E527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -10464,13 +10464,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D528" t="n">
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -10502,13 +10502,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D530" t="n">
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -10578,13 +10578,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D534" t="n">
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -10616,13 +10616,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D536" t="n">
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -10654,13 +10654,13 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D538" t="n">
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -10692,10 +10692,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E540" t="n">
         <v>0</v>
@@ -10749,13 +10749,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D543" t="n">
         <v>0</v>
       </c>
       <c r="E543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -10806,13 +10806,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D546" t="n">
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -10828,10 +10828,10 @@
         <v>1</v>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -10863,13 +10863,13 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D549" t="n">
         <v>0</v>
       </c>
       <c r="E549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -11167,13 +11167,13 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D565" t="n">
         <v>0</v>
       </c>
       <c r="E565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -11319,13 +11319,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D573" t="n">
         <v>0</v>
       </c>
       <c r="E573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -11528,10 +11528,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E584" t="n">
         <v>0</v>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E586" t="n">
         <v>0</v>
@@ -11604,13 +11604,13 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -11623,13 +11623,13 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D589" t="n">
         <v>0</v>
       </c>
       <c r="E589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -11661,13 +11661,13 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D591" t="n">
         <v>0</v>
       </c>
       <c r="E591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -11718,13 +11718,13 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D594" t="n">
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -11737,13 +11737,13 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D595" t="n">
         <v>0</v>
       </c>
       <c r="E595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -11832,13 +11832,13 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D600" t="n">
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -11927,13 +11927,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D605" t="n">
         <v>0</v>
       </c>
       <c r="E605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -11965,13 +11965,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D607" t="n">
         <v>0</v>
       </c>
       <c r="E607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -11984,10 +11984,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E608" t="n">
         <v>0</v>
@@ -12041,10 +12041,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E611" t="n">
         <v>0</v>
@@ -12079,13 +12079,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D613" t="n">
         <v>0</v>
       </c>
       <c r="E613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -12136,10 +12136,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E616" t="n">
         <v>0</v>
@@ -12155,10 +12155,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E617" t="n">
         <v>0</v>
@@ -12212,13 +12212,13 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D620" t="n">
         <v>0</v>
       </c>
       <c r="E620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -12307,13 +12307,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D625" t="n">
         <v>0</v>
       </c>
       <c r="E625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -12478,13 +12478,13 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D634" t="n">
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -12630,13 +12630,13 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D642" t="n">
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -12725,13 +12725,13 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D647" t="n">
         <v>0</v>
       </c>
       <c r="E647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -12744,13 +12744,13 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D648" t="n">
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -12763,13 +12763,13 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D649" t="n">
         <v>0</v>
       </c>
       <c r="E649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -12801,10 +12801,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E651" t="n">
         <v>0</v>
@@ -12915,13 +12915,13 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D657" t="n">
         <v>0</v>
       </c>
       <c r="E657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
@@ -12953,10 +12953,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E659" t="n">
         <v>0</v>
@@ -12972,13 +12972,13 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D660" t="n">
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -12991,13 +12991,13 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D661" t="n">
         <v>0</v>
       </c>
       <c r="E661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -13010,13 +13010,13 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D662" t="n">
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -13067,13 +13067,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D665" t="n">
         <v>0</v>
       </c>
       <c r="E665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -13238,13 +13238,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D674" t="n">
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -13352,13 +13352,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D680" t="n">
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -13371,13 +13371,13 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D681" t="n">
         <v>0</v>
       </c>
       <c r="E681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -13466,13 +13466,13 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D686" t="n">
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687">
@@ -13504,10 +13504,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E688" t="n">
         <v>0</v>
@@ -13561,10 +13561,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E691" t="n">
         <v>0</v>
@@ -13599,13 +13599,13 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D693" t="n">
         <v>0</v>
       </c>
       <c r="E693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
@@ -13865,13 +13865,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D707" t="n">
         <v>0</v>
       </c>
       <c r="E707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -13960,10 +13960,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E712" t="n">
         <v>0</v>
@@ -13979,13 +13979,13 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D713" t="n">
         <v>0</v>
       </c>
       <c r="E713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714">
@@ -14036,10 +14036,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E716" t="n">
         <v>0</v>
@@ -14074,13 +14074,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
@@ -14112,13 +14112,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D720" t="n">
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -14131,13 +14131,13 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D721" t="n">
         <v>0</v>
       </c>
       <c r="E721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
@@ -14283,13 +14283,13 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D729" t="n">
         <v>0</v>
       </c>
       <c r="E729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -14454,13 +14454,13 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D738" t="n">
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -14473,13 +14473,13 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D739" t="n">
         <v>0</v>
       </c>
       <c r="E739" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740">
@@ -14530,13 +14530,13 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D742" t="n">
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -14644,13 +14644,13 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D748" t="n">
         <v>0</v>
       </c>
       <c r="E748" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
@@ -14720,13 +14720,13 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D752" t="n">
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
@@ -14815,13 +14815,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D757" t="n">
         <v>0</v>
       </c>
       <c r="E757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -14872,13 +14872,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D760" t="n">
         <v>0</v>
       </c>
       <c r="E760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -15100,13 +15100,13 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D772" t="n">
         <v>0</v>
       </c>
       <c r="E772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -15274,10 +15274,10 @@
         <v>1</v>
       </c>
       <c r="D781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E781" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782">
@@ -15309,10 +15309,10 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D783" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E783" t="n">
         <v>0</v>
@@ -15328,10 +15328,10 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E784" t="n">
         <v>0</v>
@@ -15404,13 +15404,13 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D788" t="n">
         <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -15426,10 +15426,10 @@
         <v>1</v>
       </c>
       <c r="D789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790">
@@ -15499,13 +15499,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D793" t="n">
         <v>0</v>
       </c>
       <c r="E793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -15575,13 +15575,13 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D797" t="n">
         <v>0</v>
       </c>
       <c r="E797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -15822,10 +15822,10 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E810" t="n">
         <v>0</v>
@@ -15860,13 +15860,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D812" t="n">
         <v>0</v>
       </c>
       <c r="E812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
@@ -15974,13 +15974,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D818" t="n">
         <v>0</v>
       </c>
       <c r="E818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -16012,10 +16012,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E820" t="n">
         <v>0</v>
@@ -16145,13 +16145,13 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D827" t="n">
         <v>0</v>
       </c>
       <c r="E827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -16221,13 +16221,13 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D831" t="n">
         <v>0</v>
       </c>
       <c r="E831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832">
@@ -16297,13 +16297,13 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D835" t="n">
         <v>0</v>
       </c>
       <c r="E835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836">
@@ -16392,10 +16392,10 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E840" t="n">
         <v>1</v>
@@ -16411,13 +16411,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D841" t="n">
         <v>0</v>
       </c>
       <c r="E841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -16449,13 +16449,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D843" t="n">
         <v>0</v>
       </c>
       <c r="E843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -16487,10 +16487,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E845" t="n">
         <v>0</v>
@@ -16601,10 +16601,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D851" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E851" t="n">
         <v>0</v>
@@ -16753,10 +16753,10 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E859" t="n">
         <v>0</v>
@@ -16848,13 +16848,13 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D864" t="n">
         <v>0</v>
       </c>
       <c r="E864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -16886,13 +16886,13 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D866" t="n">
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867">
@@ -17038,13 +17038,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D874" t="n">
         <v>0</v>
       </c>
       <c r="E874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -17114,10 +17114,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E878" t="n">
         <v>0</v>
@@ -17133,13 +17133,13 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D879" t="n">
         <v>0</v>
       </c>
       <c r="E879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -17171,13 +17171,13 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D881" t="n">
         <v>0</v>
       </c>
       <c r="E881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882">
@@ -17266,13 +17266,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D886" t="n">
         <v>0</v>
       </c>
       <c r="E886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -17342,13 +17342,13 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D890" t="n">
         <v>0</v>
       </c>
       <c r="E890" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891">
@@ -17418,13 +17418,13 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D894" t="n">
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895">
@@ -17684,10 +17684,10 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D908" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E908" t="n">
         <v>0</v>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D922" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E922" t="n">
         <v>0</v>
@@ -18349,10 +18349,10 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D943" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E943" t="n">
         <v>0</v>
@@ -18691,10 +18691,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E961" t="n">
         <v>0</v>
